--- a/Data/test_data.xlsx
+++ b/Data/test_data.xlsx
@@ -447,7 +447,7 @@
         <v>158.2112659331813</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,7 +470,7 @@
         <v>199.771921230264</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -723,7 +723,7 @@
         <v>150.9899001951668</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -769,7 +769,7 @@
         <v>202.8445650464379</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -884,7 +884,7 @@
         <v>169.0515933105906</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -907,7 +907,7 @@
         <v>186.5966914190039</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1045,7 +1045,7 @@
         <v>201.1263580491191</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1114,7 +1114,7 @@
         <v>152.1709837917543</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1160,7 +1160,7 @@
         <v>202.6344747910475</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1229,7 +1229,7 @@
         <v>171.2261606815226</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1252,7 +1252,7 @@
         <v>161.796497457878</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1275,7 +1275,7 @@
         <v>184.0021878844596</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1482,7 +1482,7 @@
         <v>167.5744631941851</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1505,7 +1505,7 @@
         <v>200.9447387490705</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1528,7 +1528,7 @@
         <v>163.1544557414122</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1597,7 +1597,7 @@
         <v>193.5796425122695</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1643,7 +1643,7 @@
         <v>208.7305844371296</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1666,7 +1666,7 @@
         <v>212.0132772992569</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1758,7 +1758,7 @@
         <v>161.9404917724783</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1781,7 +1781,7 @@
         <v>181.0615571611713</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1896,7 +1896,7 @@
         <v>192.6458691734223</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1919,7 +1919,7 @@
         <v>111.3635468869645</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1965,7 +1965,7 @@
         <v>167.128289207692</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2034,7 +2034,7 @@
         <v>179.2855447791276</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2103,7 +2103,7 @@
         <v>133.6711737377786</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2126,7 +2126,7 @@
         <v>189.2811781054648</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2149,7 +2149,7 @@
         <v>161.4344235714624</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2172,7 +2172,7 @@
         <v>185.4767265939162</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2264,7 +2264,7 @@
         <v>183.7666571419742</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2333,7 +2333,7 @@
         <v>178.7016050045395</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2379,7 +2379,7 @@
         <v>163.7137716330195</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2471,7 +2471,7 @@
         <v>152.5940627805697</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2494,7 +2494,7 @@
         <v>180.2533225816046</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2563,7 +2563,7 @@
         <v>186.9277039447196</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2632,7 +2632,7 @@
         <v>162.2328612881199</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2678,7 +2678,7 @@
         <v>186.3742090575595</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2770,7 +2770,7 @@
         <v>169.8983570338239</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2816,7 +2816,7 @@
         <v>205.4192119543092</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2839,7 +2839,7 @@
         <v>165.3828001173152</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2954,7 +2954,7 @@
         <v>204.0188834204544</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2977,7 +2977,7 @@
         <v>155.2926049197393</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3000,7 +3000,7 @@
         <v>196.6005220647895</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3069,7 +3069,7 @@
         <v>157.2866744827462</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3138,7 +3138,7 @@
         <v>160.9889225131641</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3161,7 +3161,7 @@
         <v>184.541633913985</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3184,7 +3184,7 @@
         <v>159.1804154061552</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3207,7 +3207,7 @@
         <v>188.2465085131881</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3230,7 +3230,7 @@
         <v>166.9157663027538</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3299,7 +3299,7 @@
         <v>184.4920027744353</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3345,7 +3345,7 @@
         <v>164.777270309669</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3414,7 +3414,7 @@
         <v>191.9202900045018</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3437,7 +3437,7 @@
         <v>194.9554390719889</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3460,7 +3460,7 @@
         <v>188.3625840053241</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3552,7 +3552,7 @@
         <v>177.6191824453662</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3575,7 +3575,7 @@
         <v>178.1113557242886</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3989,7 +3989,7 @@
         <v>172.2614671299453</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4058,7 +4058,7 @@
         <v>193.2087878472921</v>
       </c>
       <c r="G159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4150,7 +4150,7 @@
         <v>165.4176182519777</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4242,7 +4242,7 @@
         <v>184.0579370930179</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4288,7 +4288,7 @@
         <v>165.7262392250622</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4587,7 +4587,7 @@
         <v>149.0975639535653</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4633,7 +4633,7 @@
         <v>170.8902119865201</v>
       </c>
       <c r="G184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4725,7 +4725,7 @@
         <v>173.0568643950211</v>
       </c>
       <c r="G188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4748,7 +4748,7 @@
         <v>187.2411226744443</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4840,7 +4840,7 @@
         <v>179.3323578232999</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4955,7 +4955,7 @@
         <v>160.0123245444784</v>
       </c>
       <c r="G198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5024,7 +5024,7 @@
         <v>185.8071381623317</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5070,7 +5070,7 @@
         <v>183.1895346101025</v>
       </c>
       <c r="G203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5116,7 +5116,7 @@
         <v>179.130368285121</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5185,7 +5185,7 @@
         <v>194.6532227948132</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5300,7 +5300,7 @@
         <v>164.8561276304036</v>
       </c>
       <c r="G213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5392,7 +5392,7 @@
         <v>193.1043127132932</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5553,7 +5553,7 @@
         <v>159.2539892696898</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5599,7 +5599,7 @@
         <v>171.7992208592604</v>
       </c>
       <c r="G226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5645,7 +5645,7 @@
         <v>198.0588858131149</v>
       </c>
       <c r="G228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5714,7 +5714,7 @@
         <v>176.3264836880369</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5760,7 +5760,7 @@
         <v>179.5651754189974</v>
       </c>
       <c r="G233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5829,7 +5829,7 @@
         <v>165.6972904253467</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5921,7 +5921,7 @@
         <v>154.1794249040148</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -6059,7 +6059,7 @@
         <v>184.7953287823646</v>
       </c>
       <c r="G246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6151,7 +6151,7 @@
         <v>166.3280412677948</v>
       </c>
       <c r="G250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6197,7 +6197,7 @@
         <v>189.6461760669888</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6266,7 +6266,7 @@
         <v>193.3589556634605</v>
       </c>
       <c r="G255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6381,7 +6381,7 @@
         <v>157.0240640646328</v>
       </c>
       <c r="G260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6427,7 +6427,7 @@
         <v>184.1755956950878</v>
       </c>
       <c r="G262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6473,7 +6473,7 @@
         <v>159.1865730049421</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6680,7 +6680,7 @@
         <v>174.2648367087499</v>
       </c>
       <c r="G273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6726,7 +6726,7 @@
         <v>170.6359813896818</v>
       </c>
       <c r="G275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6841,7 +6841,7 @@
         <v>178.2127661340469</v>
       </c>
       <c r="G280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6887,7 +6887,7 @@
         <v>203.1767021835893</v>
       </c>
       <c r="G282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -7163,7 +7163,7 @@
         <v>205.3245727885637</v>
       </c>
       <c r="G294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7186,7 +7186,7 @@
         <v>186.4384536930085</v>
       </c>
       <c r="G295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7209,7 +7209,7 @@
         <v>162.100539704444</v>
       </c>
       <c r="G296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7301,7 +7301,7 @@
         <v>164.5319101655733</v>
       </c>
       <c r="G300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7370,7 +7370,7 @@
         <v>194.5726577677817</v>
       </c>
       <c r="G303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7393,7 +7393,7 @@
         <v>172.4755196630207</v>
       </c>
       <c r="G304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -7416,7 +7416,7 @@
         <v>189.0180809353732</v>
       </c>
       <c r="G305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7462,7 +7462,7 @@
         <v>182.2574537456852</v>
       </c>
       <c r="G307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -7554,7 +7554,7 @@
         <v>140.2069369706961</v>
       </c>
       <c r="G311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -7577,7 +7577,7 @@
         <v>184.3912451175878</v>
       </c>
       <c r="G312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -7600,7 +7600,7 @@
         <v>196.0489350402678</v>
       </c>
       <c r="G313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7646,7 +7646,7 @@
         <v>162.7801795417</v>
       </c>
       <c r="G315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7761,7 +7761,7 @@
         <v>169.6103144626518</v>
       </c>
       <c r="G320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -7807,7 +7807,7 @@
         <v>152.6259752809739</v>
       </c>
       <c r="G322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -7876,7 +7876,7 @@
         <v>182.3399327071719</v>
       </c>
       <c r="G325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -7968,7 +7968,7 @@
         <v>201.3922353865569</v>
       </c>
       <c r="G329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -8014,7 +8014,7 @@
         <v>155.3035402520313</v>
       </c>
       <c r="G331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -8106,7 +8106,7 @@
         <v>192.533161743978</v>
       </c>
       <c r="G335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -8198,7 +8198,7 @@
         <v>178.5960807629276</v>
       </c>
       <c r="G339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -8267,7 +8267,7 @@
         <v>164.6217734879253</v>
       </c>
       <c r="G342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -8451,7 +8451,7 @@
         <v>165.8762060496882</v>
       </c>
       <c r="G350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -8658,7 +8658,7 @@
         <v>193.3977192794956</v>
       </c>
       <c r="G359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -8681,7 +8681,7 @@
         <v>150.835980985433</v>
       </c>
       <c r="G360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -8796,7 +8796,7 @@
         <v>183.0795246903961</v>
       </c>
       <c r="G365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -8819,7 +8819,7 @@
         <v>155.6654385644693</v>
       </c>
       <c r="G366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -8911,7 +8911,7 @@
         <v>198.887189687084</v>
       </c>
       <c r="G370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -8957,7 +8957,7 @@
         <v>184.5827692732714</v>
       </c>
       <c r="G372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -9026,7 +9026,7 @@
         <v>159.3124391833736</v>
       </c>
       <c r="G375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -9049,7 +9049,7 @@
         <v>159.7045980688362</v>
       </c>
       <c r="G376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -9210,7 +9210,7 @@
         <v>169.1143339727128</v>
       </c>
       <c r="G383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -9233,7 +9233,7 @@
         <v>188.9191456407679</v>
       </c>
       <c r="G384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -9256,7 +9256,7 @@
         <v>202.6252619379445</v>
       </c>
       <c r="G385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -9325,7 +9325,7 @@
         <v>186.0550228859953</v>
       </c>
       <c r="G388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -9417,7 +9417,7 @@
         <v>159.2907698260502</v>
       </c>
       <c r="G392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -9532,7 +9532,7 @@
         <v>161.1863304516568</v>
       </c>
       <c r="G397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -9647,7 +9647,7 @@
         <v>186.4019328411554</v>
       </c>
       <c r="G402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -9670,7 +9670,7 @@
         <v>170.3878196168031</v>
       </c>
       <c r="G403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -9716,7 +9716,7 @@
         <v>163.4432355359791</v>
       </c>
       <c r="G405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -9808,7 +9808,7 @@
         <v>199.0509537530716</v>
       </c>
       <c r="G409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -9831,7 +9831,7 @@
         <v>192.4196412912274</v>
       </c>
       <c r="G410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -9854,7 +9854,7 @@
         <v>171.2832304183733</v>
       </c>
       <c r="G411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -9877,7 +9877,7 @@
         <v>190.9883276076985</v>
       </c>
       <c r="G412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -9923,7 +9923,7 @@
         <v>191.5139969998649</v>
       </c>
       <c r="G414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -9946,7 +9946,7 @@
         <v>187.3643705251858</v>
       </c>
       <c r="G415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -10015,7 +10015,7 @@
         <v>183.8636652160799</v>
       </c>
       <c r="G418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -10245,7 +10245,7 @@
         <v>179.1938312955068</v>
       </c>
       <c r="G428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -10291,7 +10291,7 @@
         <v>204.277321888861</v>
       </c>
       <c r="G430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -10406,7 +10406,7 @@
         <v>159.4497208525364</v>
       </c>
       <c r="G435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -10521,7 +10521,7 @@
         <v>221.0387728824598</v>
       </c>
       <c r="G440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -10544,7 +10544,7 @@
         <v>180.0094639995156</v>
       </c>
       <c r="G441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -10590,7 +10590,7 @@
         <v>175.2891217207323</v>
       </c>
       <c r="G443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -10659,7 +10659,7 @@
         <v>140.4228877943266</v>
       </c>
       <c r="G446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -10820,7 +10820,7 @@
         <v>189.3290296129757</v>
       </c>
       <c r="G453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -10843,7 +10843,7 @@
         <v>183.2260676486151</v>
       </c>
       <c r="G454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -10958,7 +10958,7 @@
         <v>187.9706217753636</v>
       </c>
       <c r="G459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -10981,7 +10981,7 @@
         <v>207.6025339664668</v>
       </c>
       <c r="G460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -11004,7 +11004,7 @@
         <v>155.3332742009949</v>
       </c>
       <c r="G461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -11073,7 +11073,7 @@
         <v>169.7252426190727</v>
       </c>
       <c r="G464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -11211,7 +11211,7 @@
         <v>181.9073621231044</v>
       </c>
       <c r="G470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:7">
@@ -11326,7 +11326,7 @@
         <v>170.6429926349817</v>
       </c>
       <c r="G475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -11349,7 +11349,7 @@
         <v>205.5821368480525</v>
       </c>
       <c r="G476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -11372,7 +11372,7 @@
         <v>189.3043455247861</v>
       </c>
       <c r="G477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:7">
@@ -11395,7 +11395,7 @@
         <v>147.1274904472916</v>
       </c>
       <c r="G478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -11418,7 +11418,7 @@
         <v>145.534609192809</v>
       </c>
       <c r="G479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:7">
@@ -11602,7 +11602,7 @@
         <v>158.8315501034428</v>
       </c>
       <c r="G487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:7">
@@ -11763,7 +11763,7 @@
         <v>176.0299868713035</v>
       </c>
       <c r="G494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:7">
@@ -11832,7 +11832,7 @@
         <v>180.4039106731346</v>
       </c>
       <c r="G497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:7">
@@ -11855,7 +11855,7 @@
         <v>131.6177187515482</v>
       </c>
       <c r="G498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:7">
@@ -11878,7 +11878,7 @@
         <v>208.7432203846964</v>
       </c>
       <c r="G499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -11901,7 +11901,7 @@
         <v>168.1369897036746</v>
       </c>
       <c r="G500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:7">
@@ -11970,7 +11970,7 @@
         <v>173.3211918313947</v>
       </c>
       <c r="G503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:7">
@@ -11993,7 +11993,7 @@
         <v>171.2163269303508</v>
       </c>
       <c r="G504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:7">
@@ -12016,7 +12016,7 @@
         <v>131.6842258477512</v>
       </c>
       <c r="G505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:7">
@@ -12085,7 +12085,7 @@
         <v>198.8175724576774</v>
       </c>
       <c r="G508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -12177,7 +12177,7 @@
         <v>166.812167021833</v>
       </c>
       <c r="G512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -12246,7 +12246,7 @@
         <v>187.619197772625</v>
       </c>
       <c r="G515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -12384,7 +12384,7 @@
         <v>171.465179367581</v>
       </c>
       <c r="G521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -12476,7 +12476,7 @@
         <v>153.8833531683938</v>
       </c>
       <c r="G525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -12545,7 +12545,7 @@
         <v>125.1473195993017</v>
       </c>
       <c r="G528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -12568,7 +12568,7 @@
         <v>160.801985140813</v>
       </c>
       <c r="G529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -12683,7 +12683,7 @@
         <v>169.550327879706</v>
       </c>
       <c r="G534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -12729,7 +12729,7 @@
         <v>176.1606750801424</v>
       </c>
       <c r="G536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -12798,7 +12798,7 @@
         <v>162.6273715002591</v>
       </c>
       <c r="G539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -12821,7 +12821,7 @@
         <v>197.5125387681614</v>
       </c>
       <c r="G540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -12867,7 +12867,7 @@
         <v>149.7130482327835</v>
       </c>
       <c r="G542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -12936,7 +12936,7 @@
         <v>186.9242428627085</v>
       </c>
       <c r="G545">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -12959,7 +12959,7 @@
         <v>162.3329883862598</v>
       </c>
       <c r="G546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -12982,7 +12982,7 @@
         <v>121.0105285287185</v>
       </c>
       <c r="G547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -13005,7 +13005,7 @@
         <v>199.8239938347453</v>
       </c>
       <c r="G548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -13258,7 +13258,7 @@
         <v>151.2345158688044</v>
       </c>
       <c r="G559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:7">
@@ -13396,7 +13396,7 @@
         <v>175.2334614224844</v>
       </c>
       <c r="G565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:7">
@@ -13442,7 +13442,7 @@
         <v>169.6636610504134</v>
       </c>
       <c r="G567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:7">
@@ -13465,7 +13465,7 @@
         <v>170.0993107046834</v>
       </c>
       <c r="G568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:7">
@@ -13488,7 +13488,7 @@
         <v>175.2897026503273</v>
       </c>
       <c r="G569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:7">
@@ -13603,7 +13603,7 @@
         <v>170.7807151094333</v>
       </c>
       <c r="G574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:7">
@@ -13649,7 +13649,7 @@
         <v>189.7126085226561</v>
       </c>
       <c r="G576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:7">
@@ -13695,7 +13695,7 @@
         <v>172.2900307581434</v>
       </c>
       <c r="G578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:7">
@@ -13741,7 +13741,7 @@
         <v>172.4629870848847</v>
       </c>
       <c r="G580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:7">
@@ -13764,7 +13764,7 @@
         <v>172.7316099748897</v>
       </c>
       <c r="G581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:7">
@@ -13879,7 +13879,7 @@
         <v>181.4755609647821</v>
       </c>
       <c r="G586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:7">
@@ -13948,7 +13948,7 @@
         <v>158.0383765284573</v>
       </c>
       <c r="G589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:7">
@@ -14017,7 +14017,7 @@
         <v>183.3088399109002</v>
       </c>
       <c r="G592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:7">
@@ -14040,7 +14040,7 @@
         <v>188.7793787404136</v>
       </c>
       <c r="G593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:7">
@@ -14132,7 +14132,7 @@
         <v>170.7228385005307</v>
       </c>
       <c r="G597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:7">
@@ -14201,7 +14201,7 @@
         <v>150.2398434353773</v>
       </c>
       <c r="G600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:7">
@@ -14224,7 +14224,7 @@
         <v>182.3496709038489</v>
       </c>
       <c r="G601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:7">
@@ -14247,7 +14247,7 @@
         <v>191.0979481022463</v>
       </c>
       <c r="G602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:7">
@@ -14270,7 +14270,7 @@
         <v>181.4635095636272</v>
       </c>
       <c r="G603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:7">
@@ -14385,7 +14385,7 @@
         <v>165.9255388079085</v>
       </c>
       <c r="G608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:7">
@@ -14454,7 +14454,7 @@
         <v>124.8845661854847</v>
       </c>
       <c r="G611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:7">
@@ -14707,7 +14707,7 @@
         <v>191.9212200633026</v>
       </c>
       <c r="G622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:7">
@@ -14730,7 +14730,7 @@
         <v>175.8182139826142</v>
       </c>
       <c r="G623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:7">
@@ -14776,7 +14776,7 @@
         <v>156.7842971904364</v>
       </c>
       <c r="G625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:7">
@@ -14799,7 +14799,7 @@
         <v>128.1355681173191</v>
       </c>
       <c r="G626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:7">
@@ -14914,7 +14914,7 @@
         <v>156.5030764607047</v>
       </c>
       <c r="G631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:7">
@@ -14937,7 +14937,7 @@
         <v>145.9766085950941</v>
       </c>
       <c r="G632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:7">
@@ -15006,7 +15006,7 @@
         <v>199.1990394728424</v>
       </c>
       <c r="G635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:7">
@@ -15075,7 +15075,7 @@
         <v>166.5455285278967</v>
       </c>
       <c r="G638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:7">
@@ -15098,7 +15098,7 @@
         <v>176.3685561910274</v>
       </c>
       <c r="G639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:7">
@@ -15121,7 +15121,7 @@
         <v>176.7540947968383</v>
       </c>
       <c r="G640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:7">
@@ -15259,7 +15259,7 @@
         <v>185.5819750240283</v>
       </c>
       <c r="G646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:7">
@@ -15282,7 +15282,7 @@
         <v>181.5557444979688</v>
       </c>
       <c r="G647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:7">
@@ -15305,7 +15305,7 @@
         <v>177.9523656966373</v>
       </c>
       <c r="G648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:7">
@@ -15328,7 +15328,7 @@
         <v>172.7945009751436</v>
       </c>
       <c r="G649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:7">
@@ -15374,7 +15374,7 @@
         <v>172.4084070762137</v>
       </c>
       <c r="G651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:7">
@@ -15443,7 +15443,7 @@
         <v>165.87285500533</v>
       </c>
       <c r="G654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:7">
@@ -15466,7 +15466,7 @@
         <v>167.9668712194241</v>
       </c>
       <c r="G655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:7">
@@ -15581,7 +15581,7 @@
         <v>183.5039878235982</v>
       </c>
       <c r="G660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:7">
@@ -15604,7 +15604,7 @@
         <v>152.8016334023478</v>
       </c>
       <c r="G661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:7">
@@ -15627,7 +15627,7 @@
         <v>135.2000813921333</v>
       </c>
       <c r="G662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:7">
@@ -15788,7 +15788,7 @@
         <v>194.3508609902689</v>
       </c>
       <c r="G669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:7">
@@ -15811,7 +15811,7 @@
         <v>160.6940182114243</v>
       </c>
       <c r="G670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:7">
@@ -15834,7 +15834,7 @@
         <v>150.9550387777205</v>
       </c>
       <c r="G671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:7">
@@ -15857,7 +15857,7 @@
         <v>204.2855426506774</v>
       </c>
       <c r="G672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:7">
@@ -16018,7 +16018,7 @@
         <v>178.9642108984266</v>
       </c>
       <c r="G679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:7">
@@ -16087,7 +16087,7 @@
         <v>147.1274026959221</v>
       </c>
       <c r="G682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:7">
@@ -16110,7 +16110,7 @@
         <v>186.1943267115509</v>
       </c>
       <c r="G683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:7">
@@ -16179,7 +16179,7 @@
         <v>179.2957286517707</v>
       </c>
       <c r="G686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:7">
@@ -16248,7 +16248,7 @@
         <v>188.0080149910738</v>
       </c>
       <c r="G689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:7">
@@ -16340,7 +16340,7 @@
         <v>154.3283149265158</v>
       </c>
       <c r="G693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:7">
@@ -16386,7 +16386,7 @@
         <v>162.7702057319654</v>
       </c>
       <c r="G695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:7">
@@ -16455,7 +16455,7 @@
         <v>212.8525554680101</v>
       </c>
       <c r="G698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:7">
@@ -16662,7 +16662,7 @@
         <v>148.5807641847792</v>
       </c>
       <c r="G707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:7">
@@ -16708,7 +16708,7 @@
         <v>176.7591403903736</v>
       </c>
       <c r="G709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:7">
@@ -16731,7 +16731,7 @@
         <v>197.5774166531319</v>
       </c>
       <c r="G710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:7">
@@ -16754,7 +16754,7 @@
         <v>194.3845580375448</v>
       </c>
       <c r="G711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:7">
@@ -16777,7 +16777,7 @@
         <v>154.6724143474663</v>
       </c>
       <c r="G712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:7">
@@ -16846,7 +16846,7 @@
         <v>135.3126199513585</v>
       </c>
       <c r="G715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:7">
@@ -16938,7 +16938,7 @@
         <v>195.0636861197793</v>
       </c>
       <c r="G719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:7">
@@ -17007,7 +17007,7 @@
         <v>192.732716825707</v>
       </c>
       <c r="G722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:7">
@@ -17191,7 +17191,7 @@
         <v>175.1033173562645</v>
       </c>
       <c r="G730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:7">
@@ -17283,7 +17283,7 @@
         <v>185.1237912873103</v>
       </c>
       <c r="G734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:7">
@@ -17329,7 +17329,7 @@
         <v>151.7616871673535</v>
       </c>
       <c r="G736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:7">
@@ -17352,7 +17352,7 @@
         <v>135.2380294902462</v>
       </c>
       <c r="G737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:7">
@@ -17375,7 +17375,7 @@
         <v>168.1678795800574</v>
       </c>
       <c r="G738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:7">
@@ -17444,7 +17444,7 @@
         <v>163.2765822679042</v>
       </c>
       <c r="G741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:7">
@@ -17513,7 +17513,7 @@
         <v>169.7813134903213</v>
       </c>
       <c r="G744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:7">
@@ -17582,7 +17582,7 @@
         <v>200.2180502962494</v>
       </c>
       <c r="G747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:7">
@@ -17674,7 +17674,7 @@
         <v>184.6798070067655</v>
       </c>
       <c r="G751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:7">
@@ -17720,7 +17720,7 @@
         <v>184.6335750171211</v>
       </c>
       <c r="G753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:7">
@@ -17812,7 +17812,7 @@
         <v>180.998989091751</v>
       </c>
       <c r="G757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:7">
@@ -17835,7 +17835,7 @@
         <v>161.5108443638618</v>
       </c>
       <c r="G758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:7">
@@ -17881,7 +17881,7 @@
         <v>175.3783892063225</v>
       </c>
       <c r="G760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:7">
@@ -17904,7 +17904,7 @@
         <v>208.6597486841287</v>
       </c>
       <c r="G761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:7">
@@ -17927,7 +17927,7 @@
         <v>160.9828272186996</v>
       </c>
       <c r="G762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:7">
@@ -17950,7 +17950,7 @@
         <v>154.5718476397725</v>
       </c>
       <c r="G763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:7">
@@ -18019,7 +18019,7 @@
         <v>193.0052041815569</v>
       </c>
       <c r="G766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:7">
@@ -18134,7 +18134,7 @@
         <v>180.6745884777996</v>
       </c>
       <c r="G771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:7">
@@ -18180,7 +18180,7 @@
         <v>177.9106898688861</v>
       </c>
       <c r="G773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:7">
@@ -18203,7 +18203,7 @@
         <v>150.7406960759368</v>
       </c>
       <c r="G774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:7">
@@ -18272,7 +18272,7 @@
         <v>214.3958528880308</v>
       </c>
       <c r="G777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:7">
@@ -18502,7 +18502,7 @@
         <v>175.1655165141121</v>
       </c>
       <c r="G787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:7">
@@ -18548,7 +18548,7 @@
         <v>187.7382805494456</v>
       </c>
       <c r="G789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:7">
@@ -18594,7 +18594,7 @@
         <v>142.542409291843</v>
       </c>
       <c r="G791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:7">
@@ -18617,7 +18617,7 @@
         <v>160.2589578426448</v>
       </c>
       <c r="G792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:7">
@@ -18663,7 +18663,7 @@
         <v>169.9630676760613</v>
       </c>
       <c r="G794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:7">
@@ -18686,7 +18686,7 @@
         <v>195.0510591785523</v>
       </c>
       <c r="G795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:7">
@@ -18732,7 +18732,7 @@
         <v>154.9393432300951</v>
       </c>
       <c r="G797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:7">
@@ -18824,7 +18824,7 @@
         <v>210.4128777624128</v>
       </c>
       <c r="G801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:7">
@@ -18870,7 +18870,7 @@
         <v>206.173003480472</v>
       </c>
       <c r="G803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:7">
@@ -18962,7 +18962,7 @@
         <v>168.4286061870062</v>
       </c>
       <c r="G807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:7">
@@ -19008,7 +19008,7 @@
         <v>165.3502056324907</v>
       </c>
       <c r="G809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:7">
@@ -19031,7 +19031,7 @@
         <v>180.7893785224794</v>
       </c>
       <c r="G810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:7">
@@ -19054,7 +19054,7 @@
         <v>165.0135575510606</v>
       </c>
       <c r="G811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:7">
@@ -19123,7 +19123,7 @@
         <v>215.2019038353974</v>
       </c>
       <c r="G814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:7">
@@ -19284,7 +19284,7 @@
         <v>185.6325168753276</v>
       </c>
       <c r="G821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:7">
@@ -19307,7 +19307,7 @@
         <v>154.2056066489192</v>
       </c>
       <c r="G822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:7">
@@ -19330,7 +19330,7 @@
         <v>177.8821475385099</v>
       </c>
       <c r="G823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:7">
@@ -19422,7 +19422,7 @@
         <v>171.684582957864</v>
       </c>
       <c r="G827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:7">
@@ -19514,7 +19514,7 @@
         <v>198.4269382924406</v>
       </c>
       <c r="G831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:7">
@@ -19560,7 +19560,7 @@
         <v>168.766098672052</v>
       </c>
       <c r="G833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:7">
@@ -19744,7 +19744,7 @@
         <v>157.0507145287144</v>
       </c>
       <c r="G841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:7">
@@ -19813,7 +19813,7 @@
         <v>141.6758311012445</v>
       </c>
       <c r="G844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:7">
@@ -19836,7 +19836,7 @@
         <v>196.6458785817363</v>
       </c>
       <c r="G845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:7">
@@ -20020,7 +20020,7 @@
         <v>197.5702452412258</v>
       </c>
       <c r="G853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:7">
@@ -20066,7 +20066,7 @@
         <v>156.2095397863587</v>
       </c>
       <c r="G855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:7">
@@ -20204,7 +20204,7 @@
         <v>139.502309519479</v>
       </c>
       <c r="G861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:7">
@@ -20273,7 +20273,7 @@
         <v>148.1275796307921</v>
       </c>
       <c r="G864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:7">
@@ -20319,7 +20319,7 @@
         <v>200.1400781154901</v>
       </c>
       <c r="G866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:7">
@@ -20342,7 +20342,7 @@
         <v>184.1633237971969</v>
       </c>
       <c r="G867">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:7">
@@ -20411,7 +20411,7 @@
         <v>194.229371503606</v>
       </c>
       <c r="G870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:7">
@@ -20457,7 +20457,7 @@
         <v>174.4891665192404</v>
       </c>
       <c r="G872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:7">
@@ -20503,7 +20503,7 @@
         <v>167.4311299314915</v>
       </c>
       <c r="G874">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:7">
@@ -20595,7 +20595,7 @@
         <v>163.6234000157111</v>
       </c>
       <c r="G878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:7">
@@ -20802,7 +20802,7 @@
         <v>150.3089593198516</v>
       </c>
       <c r="G887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:7">
@@ -20871,7 +20871,7 @@
         <v>183.3631298972203</v>
       </c>
       <c r="G890">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:7">
@@ -20917,7 +20917,7 @@
         <v>178.9017533849618</v>
       </c>
       <c r="G892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:7">
@@ -21055,7 +21055,7 @@
         <v>208.1350929165866</v>
       </c>
       <c r="G898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:7">
@@ -21124,7 +21124,7 @@
         <v>189.9210790263518</v>
       </c>
       <c r="G901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:7">
@@ -21147,7 +21147,7 @@
         <v>152.7377721634342</v>
       </c>
       <c r="G902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:7">
@@ -21170,7 +21170,7 @@
         <v>151.0876627837272</v>
       </c>
       <c r="G903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:7">
@@ -21193,7 +21193,7 @@
         <v>132.4539901470756</v>
       </c>
       <c r="G904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:7">
@@ -21354,7 +21354,7 @@
         <v>164.0492479484665</v>
       </c>
       <c r="G911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:7">
@@ -21377,7 +21377,7 @@
         <v>199.0123674133233</v>
       </c>
       <c r="G912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:7">
@@ -21492,7 +21492,7 @@
         <v>164.0164019332049</v>
       </c>
       <c r="G917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:7">
@@ -21584,7 +21584,7 @@
         <v>194.5337845741031</v>
       </c>
       <c r="G921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:7">
@@ -21722,7 +21722,7 @@
         <v>172.1622113385562</v>
       </c>
       <c r="G927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:7">
@@ -21768,7 +21768,7 @@
         <v>170.2524603512179</v>
       </c>
       <c r="G929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:7">
@@ -21883,7 +21883,7 @@
         <v>172.4549797047742</v>
       </c>
       <c r="G934">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:7">
@@ -21906,7 +21906,7 @@
         <v>194.711809995118</v>
       </c>
       <c r="G935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:7">
@@ -21929,7 +21929,7 @@
         <v>151.5761842899216</v>
       </c>
       <c r="G936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:7">
@@ -21975,7 +21975,7 @@
         <v>164.0332726629366</v>
       </c>
       <c r="G938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:7">
@@ -21998,7 +21998,7 @@
         <v>157.2747673697897</v>
       </c>
       <c r="G939">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:7">
@@ -22044,7 +22044,7 @@
         <v>189.0302405667991</v>
       </c>
       <c r="G941">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:7">
@@ -22182,7 +22182,7 @@
         <v>152.6543245134129</v>
       </c>
       <c r="G947">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:7">
@@ -22228,7 +22228,7 @@
         <v>121.4453822032164</v>
       </c>
       <c r="G949">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:7">
@@ -22320,7 +22320,7 @@
         <v>175.2442992161198</v>
       </c>
       <c r="G953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:7">
@@ -22389,7 +22389,7 @@
         <v>188.6876566204684</v>
       </c>
       <c r="G956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:7">
@@ -22412,7 +22412,7 @@
         <v>170.2570549953356</v>
       </c>
       <c r="G957">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:7">
@@ -22481,7 +22481,7 @@
         <v>170.6069205524845</v>
       </c>
       <c r="G960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:7">
@@ -22504,7 +22504,7 @@
         <v>158.8314037436286</v>
       </c>
       <c r="G961">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:7">
@@ -22619,7 +22619,7 @@
         <v>194.5340964879836</v>
       </c>
       <c r="G966">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:7">
@@ -22734,7 +22734,7 @@
         <v>174.2088960595701</v>
       </c>
       <c r="G971">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:7">
@@ -22780,7 +22780,7 @@
         <v>207.0811965430723</v>
       </c>
       <c r="G973">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974" spans="1:7">
@@ -22872,7 +22872,7 @@
         <v>168.9560863548449</v>
       </c>
       <c r="G977">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" spans="1:7">
@@ -22941,7 +22941,7 @@
         <v>171.9364788741978</v>
       </c>
       <c r="G980">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981" spans="1:7">
@@ -23079,7 +23079,7 @@
         <v>183.5623145944891</v>
       </c>
       <c r="G986">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987" spans="1:7">
@@ -23102,7 +23102,7 @@
         <v>182.0705615506256</v>
       </c>
       <c r="G987">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988" spans="1:7">
@@ -23332,7 +23332,7 @@
         <v>170.3868612826159</v>
       </c>
       <c r="G997">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:7">
@@ -23585,7 +23585,7 @@
         <v>197.6794115122983</v>
       </c>
       <c r="G1008">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009" spans="1:7">
@@ -23608,7 +23608,7 @@
         <v>196.1054680486823</v>
       </c>
       <c r="G1009">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010" spans="1:7">
@@ -23654,7 +23654,7 @@
         <v>199.7519619256955</v>
       </c>
       <c r="G1011">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012" spans="1:7">
@@ -23677,7 +23677,7 @@
         <v>174.1506587398424</v>
       </c>
       <c r="G1012">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013" spans="1:7">
@@ -23700,7 +23700,7 @@
         <v>157.9064115602931</v>
       </c>
       <c r="G1013">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014" spans="1:7">
@@ -23838,7 +23838,7 @@
         <v>199.0986373850851</v>
       </c>
       <c r="G1019">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020" spans="1:7">
@@ -23930,7 +23930,7 @@
         <v>173.0189354420255</v>
       </c>
       <c r="G1023">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024" spans="1:7">
@@ -24206,7 +24206,7 @@
         <v>167.1499873695504</v>
       </c>
       <c r="G1035">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:7">
@@ -24229,7 +24229,7 @@
         <v>168.0041057343811</v>
       </c>
       <c r="G1036">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:7">
@@ -24252,7 +24252,7 @@
         <v>186.9209555235395</v>
       </c>
       <c r="G1037">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:7">
@@ -24344,7 +24344,7 @@
         <v>174.5821724839804</v>
       </c>
       <c r="G1041">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042" spans="1:7">
@@ -24482,7 +24482,7 @@
         <v>168.6014181518804</v>
       </c>
       <c r="G1047">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:7">
@@ -24505,7 +24505,7 @@
         <v>201.2384203477135</v>
       </c>
       <c r="G1048">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:7">
@@ -24528,7 +24528,7 @@
         <v>182.5700801205927</v>
       </c>
       <c r="G1049">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:7">
@@ -24689,7 +24689,7 @@
         <v>178.4391314457823</v>
       </c>
       <c r="G1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:7">
@@ -24850,7 +24850,7 @@
         <v>195.0703413687456</v>
       </c>
       <c r="G1063">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:7">
@@ -24942,7 +24942,7 @@
         <v>186.5558250273012</v>
       </c>
       <c r="G1067">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:7">
@@ -24965,7 +24965,7 @@
         <v>173.2999643040631</v>
       </c>
       <c r="G1068">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1069" spans="1:7">
@@ -25080,7 +25080,7 @@
         <v>155.2686757477983</v>
       </c>
       <c r="G1073">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074" spans="1:7">
@@ -25126,7 +25126,7 @@
         <v>132.320417298304</v>
       </c>
       <c r="G1075">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076" spans="1:7">
@@ -25149,7 +25149,7 @@
         <v>181.1288589051331</v>
       </c>
       <c r="G1076">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077" spans="1:7">
@@ -25172,7 +25172,7 @@
         <v>171.2288621897622</v>
       </c>
       <c r="G1077">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1078" spans="1:7">
@@ -25333,7 +25333,7 @@
         <v>176.7806866902615</v>
       </c>
       <c r="G1084">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085" spans="1:7">
@@ -25379,7 +25379,7 @@
         <v>210.6271722785982</v>
       </c>
       <c r="G1086">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:7">
@@ -25494,7 +25494,7 @@
         <v>179.2077919603627</v>
       </c>
       <c r="G1091">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:7">
@@ -25586,7 +25586,7 @@
         <v>186.1840558245111</v>
       </c>
       <c r="G1095">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:7">
@@ -25655,7 +25655,7 @@
         <v>182.0120026286792</v>
       </c>
       <c r="G1098">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099" spans="1:7">
@@ -25770,7 +25770,7 @@
         <v>163.3949197806108</v>
       </c>
       <c r="G1103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104" spans="1:7">
@@ -25839,7 +25839,7 @@
         <v>185.7968968841568</v>
       </c>
       <c r="G1106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107" spans="1:7">
@@ -25885,7 +25885,7 @@
         <v>188.1612513469768</v>
       </c>
       <c r="G1108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109" spans="1:7">
@@ -25908,7 +25908,7 @@
         <v>169.8357071042351</v>
       </c>
       <c r="G1109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110" spans="1:7">
@@ -25977,7 +25977,7 @@
         <v>147.4637831085417</v>
       </c>
       <c r="G1112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113" spans="1:7">
@@ -26023,7 +26023,7 @@
         <v>163.1593773236582</v>
       </c>
       <c r="G1114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115" spans="1:7">
@@ -26184,7 +26184,7 @@
         <v>184.0542104657073</v>
       </c>
       <c r="G1121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122" spans="1:7">
@@ -26207,7 +26207,7 @@
         <v>159.4340235002534</v>
       </c>
       <c r="G1122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123" spans="1:7">
@@ -26322,7 +26322,7 @@
         <v>165.4068845412943</v>
       </c>
       <c r="G1127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128" spans="1:7">
@@ -26506,7 +26506,7 @@
         <v>175.8369409474946</v>
       </c>
       <c r="G1135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136" spans="1:7">
@@ -26713,7 +26713,7 @@
         <v>193.0382455775339</v>
       </c>
       <c r="G1144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1145" spans="1:7">
@@ -26782,7 +26782,7 @@
         <v>192.874718563916</v>
       </c>
       <c r="G1147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1148" spans="1:7">
@@ -26805,7 +26805,7 @@
         <v>149.8270116811396</v>
       </c>
       <c r="G1148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149" spans="1:7">
@@ -26851,7 +26851,7 @@
         <v>163.3228426289039</v>
       </c>
       <c r="G1150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151" spans="1:7">
@@ -26897,7 +26897,7 @@
         <v>199.1656430625933</v>
       </c>
       <c r="G1152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153" spans="1:7">
@@ -26920,7 +26920,7 @@
         <v>161.5174765802134</v>
       </c>
       <c r="G1153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154" spans="1:7">
@@ -26943,7 +26943,7 @@
         <v>183.5751615959655</v>
       </c>
       <c r="G1154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155" spans="1:7">
@@ -27012,7 +27012,7 @@
         <v>154.147020967295</v>
       </c>
       <c r="G1157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158" spans="1:7">
@@ -27058,7 +27058,7 @@
         <v>181.3070518374679</v>
       </c>
       <c r="G1159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160" spans="1:7">
@@ -27081,7 +27081,7 @@
         <v>176.5655713792045</v>
       </c>
       <c r="G1160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161" spans="1:7">
@@ -27219,7 +27219,7 @@
         <v>195.9863818269675</v>
       </c>
       <c r="G1166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:7">
@@ -27242,7 +27242,7 @@
         <v>158.8530702799816</v>
       </c>
       <c r="G1167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1168" spans="1:7">
@@ -27288,7 +27288,7 @@
         <v>174.1691980807925</v>
       </c>
       <c r="G1169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:7">
@@ -27311,7 +27311,7 @@
         <v>133.982433977919</v>
       </c>
       <c r="G1170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1171" spans="1:7">
@@ -27380,7 +27380,7 @@
         <v>144.8867467645389</v>
       </c>
       <c r="G1173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174" spans="1:7">
@@ -27426,7 +27426,7 @@
         <v>186.7324694544163</v>
       </c>
       <c r="G1175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176" spans="1:7">
@@ -27564,7 +27564,7 @@
         <v>203.8843157592953</v>
       </c>
       <c r="G1181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182" spans="1:7">
@@ -27679,7 +27679,7 @@
         <v>178.2388472148142</v>
       </c>
       <c r="G1186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187" spans="1:7">
@@ -27725,7 +27725,7 @@
         <v>154.9052024947965</v>
       </c>
       <c r="G1188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189" spans="1:7">
@@ -27771,7 +27771,7 @@
         <v>174.333141670408</v>
       </c>
       <c r="G1190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1191" spans="1:7">
@@ -27794,7 +27794,7 @@
         <v>206.9601068367509</v>
       </c>
       <c r="G1191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:7">
@@ -27817,7 +27817,7 @@
         <v>190.1432328282184</v>
       </c>
       <c r="G1192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193" spans="1:7">
@@ -27863,7 +27863,7 @@
         <v>168.0459121119934</v>
       </c>
       <c r="G1194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195" spans="1:7">
@@ -27955,7 +27955,7 @@
         <v>195.9641536375144</v>
       </c>
       <c r="G1198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199" spans="1:7">
@@ -28001,7 +28001,7 @@
         <v>153.9391100754208</v>
       </c>
       <c r="G1200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:7">
@@ -28070,7 +28070,7 @@
         <v>144.0098576435935</v>
       </c>
       <c r="G1203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204" spans="1:7">
@@ -28116,7 +28116,7 @@
         <v>191.8818817297774</v>
       </c>
       <c r="G1205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:7">
@@ -28162,7 +28162,7 @@
         <v>197.5894115268685</v>
       </c>
       <c r="G1207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208" spans="1:7">
@@ -28231,7 +28231,7 @@
         <v>160.5200807106865</v>
       </c>
       <c r="G1210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211" spans="1:7">
@@ -28346,7 +28346,7 @@
         <v>203.6578204778802</v>
       </c>
       <c r="G1215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216" spans="1:7">
@@ -28369,7 +28369,7 @@
         <v>149.703386752261</v>
       </c>
       <c r="G1216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217" spans="1:7">
@@ -28392,7 +28392,7 @@
         <v>185.7123276099034</v>
       </c>
       <c r="G1217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218" spans="1:7">
@@ -28438,7 +28438,7 @@
         <v>152.9576389459763</v>
       </c>
       <c r="G1219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:7">
@@ -28553,7 +28553,7 @@
         <v>192.8868294235818</v>
       </c>
       <c r="G1224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:7">
@@ -28576,7 +28576,7 @@
         <v>194.623004690062</v>
       </c>
       <c r="G1225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226" spans="1:7">
@@ -28599,7 +28599,7 @@
         <v>155.5009447537477</v>
       </c>
       <c r="G1226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227" spans="1:7">
@@ -28622,7 +28622,7 @@
         <v>205.128510642053</v>
       </c>
       <c r="G1227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228" spans="1:7">
@@ -28691,7 +28691,7 @@
         <v>146.4667813632025</v>
       </c>
       <c r="G1230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1231" spans="1:7">
@@ -28714,7 +28714,7 @@
         <v>197.1230990267424</v>
       </c>
       <c r="G1231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:7">
@@ -28737,7 +28737,7 @@
         <v>200.3843247989879</v>
       </c>
       <c r="G1232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233" spans="1:7">
@@ -28783,7 +28783,7 @@
         <v>188.7542815698072</v>
       </c>
       <c r="G1234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1235" spans="1:7">
@@ -28898,7 +28898,7 @@
         <v>182.2453075222365</v>
       </c>
       <c r="G1239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1240" spans="1:7">
@@ -28990,7 +28990,7 @@
         <v>161.9249278641502</v>
       </c>
       <c r="G1243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244" spans="1:7">
@@ -29059,7 +29059,7 @@
         <v>194.9380196481754</v>
       </c>
       <c r="G1246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1247" spans="1:7">
@@ -29151,7 +29151,7 @@
         <v>172.0938708337542</v>
       </c>
       <c r="G1250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251" spans="1:7">
@@ -29266,7 +29266,7 @@
         <v>205.3887258505441</v>
       </c>
       <c r="G1255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256" spans="1:7">
@@ -29312,7 +29312,7 @@
         <v>192.5855999546846</v>
       </c>
       <c r="G1257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1258" spans="1:7">
@@ -29404,7 +29404,7 @@
         <v>191.8011140549045</v>
       </c>
       <c r="G1261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1262" spans="1:7">
@@ -29427,7 +29427,7 @@
         <v>157.7537018990319</v>
       </c>
       <c r="G1262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1263" spans="1:7">
@@ -29450,7 +29450,7 @@
         <v>180.7934466803114</v>
       </c>
       <c r="G1263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1264" spans="1:7">
@@ -29496,7 +29496,7 @@
         <v>184.0882535795008</v>
       </c>
       <c r="G1265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1266" spans="1:7">
@@ -29680,7 +29680,7 @@
         <v>189.95928093759</v>
       </c>
       <c r="G1273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1274" spans="1:7">
@@ -29818,7 +29818,7 @@
         <v>176.8076692910551</v>
       </c>
       <c r="G1279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1280" spans="1:7">
@@ -29979,7 +29979,7 @@
         <v>187.1664577416786</v>
       </c>
       <c r="G1286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1287" spans="1:7">
@@ -30048,7 +30048,7 @@
         <v>166.2980216645905</v>
       </c>
       <c r="G1289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1290" spans="1:7">
@@ -30071,7 +30071,7 @@
         <v>180.2899117498987</v>
       </c>
       <c r="G1290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1291" spans="1:7">
@@ -30232,7 +30232,7 @@
         <v>181.6081179296515</v>
       </c>
       <c r="G1297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298" spans="1:7">
@@ -30255,7 +30255,7 @@
         <v>154.4001034972698</v>
       </c>
       <c r="G1298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299" spans="1:7">
@@ -30324,7 +30324,7 @@
         <v>134.9180788470652</v>
       </c>
       <c r="G1301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1302" spans="1:7">
@@ -30370,7 +30370,7 @@
         <v>172.2133416711784</v>
       </c>
       <c r="G1303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1304" spans="1:7">
@@ -30393,7 +30393,7 @@
         <v>141.0327162017163</v>
       </c>
       <c r="G1304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1305" spans="1:7">
@@ -30462,7 +30462,7 @@
         <v>171.4456082458115</v>
       </c>
       <c r="G1307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1308" spans="1:7">
@@ -30485,7 +30485,7 @@
         <v>192.902142914105</v>
       </c>
       <c r="G1308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1309" spans="1:7">
@@ -30623,7 +30623,7 @@
         <v>156.8859843463443</v>
       </c>
       <c r="G1314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1315" spans="1:7">
@@ -30669,7 +30669,7 @@
         <v>166.9815234723407</v>
       </c>
       <c r="G1316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317" spans="1:7">
@@ -30715,7 +30715,7 @@
         <v>186.6321628587371</v>
       </c>
       <c r="G1318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1319" spans="1:7">
@@ -30830,7 +30830,7 @@
         <v>189.9247751041363</v>
       </c>
       <c r="G1323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1324" spans="1:7">
@@ -30876,7 +30876,7 @@
         <v>148.6439247583852</v>
       </c>
       <c r="G1325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1326" spans="1:7">
@@ -31060,7 +31060,7 @@
         <v>151.6920208266907</v>
       </c>
       <c r="G1333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1334" spans="1:7">
@@ -31129,7 +31129,7 @@
         <v>189.168196947044</v>
       </c>
       <c r="G1336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1337" spans="1:7">
@@ -31152,7 +31152,7 @@
         <v>190.8165211361321</v>
       </c>
       <c r="G1337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1338" spans="1:7">
@@ -31221,7 +31221,7 @@
         <v>158.3239934322154</v>
       </c>
       <c r="G1340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1341" spans="1:7">
@@ -31267,7 +31267,7 @@
         <v>152.6514980341297</v>
       </c>
       <c r="G1342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1343" spans="1:7">
@@ -31359,7 +31359,7 @@
         <v>189.0900661899501</v>
       </c>
       <c r="G1346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1347" spans="1:7">
@@ -31382,7 +31382,7 @@
         <v>175.9070265152129</v>
       </c>
       <c r="G1347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1348" spans="1:7">
@@ -31405,7 +31405,7 @@
         <v>166.7654228939668</v>
       </c>
       <c r="G1348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1349" spans="1:7">
@@ -31520,7 +31520,7 @@
         <v>168.7785116760552</v>
       </c>
       <c r="G1353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1354" spans="1:7">
@@ -31543,7 +31543,7 @@
         <v>173.5232790860194</v>
       </c>
       <c r="G1354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1355" spans="1:7">
@@ -31612,7 +31612,7 @@
         <v>190.0214632158795</v>
       </c>
       <c r="G1357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1358" spans="1:7">
@@ -31658,7 +31658,7 @@
         <v>124.5462975471737</v>
       </c>
       <c r="G1359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1360" spans="1:7">
@@ -31681,7 +31681,7 @@
         <v>194.9912801319084</v>
       </c>
       <c r="G1360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1361" spans="1:7">
@@ -31842,7 +31842,7 @@
         <v>192.9900288690419</v>
       </c>
       <c r="G1367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1368" spans="1:7">
@@ -31934,7 +31934,7 @@
         <v>210.2348168268161</v>
       </c>
       <c r="G1371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1372" spans="1:7">
@@ -31980,7 +31980,7 @@
         <v>202.5341206048249</v>
       </c>
       <c r="G1373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1374" spans="1:7">
@@ -32026,7 +32026,7 @@
         <v>194.9154718496363</v>
       </c>
       <c r="G1375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1376" spans="1:7">
@@ -32187,7 +32187,7 @@
         <v>208.5589576688711</v>
       </c>
       <c r="G1382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1383" spans="1:7">
@@ -32256,7 +32256,7 @@
         <v>161.8957660704843</v>
       </c>
       <c r="G1385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1386" spans="1:7">
@@ -32302,7 +32302,7 @@
         <v>182.5543456229987</v>
       </c>
       <c r="G1387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1388" spans="1:7">
@@ -32417,7 +32417,7 @@
         <v>200.9440774691629</v>
       </c>
       <c r="G1392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1393" spans="1:7">
@@ -32440,7 +32440,7 @@
         <v>166.6405288072235</v>
       </c>
       <c r="G1393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1394" spans="1:7">
@@ -32463,7 +32463,7 @@
         <v>166.8543109734503</v>
       </c>
       <c r="G1394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1395" spans="1:7">
@@ -32555,7 +32555,7 @@
         <v>184.3837213159339</v>
       </c>
       <c r="G1398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1399" spans="1:7">
@@ -32624,7 +32624,7 @@
         <v>179.3195157845315</v>
       </c>
       <c r="G1401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1402" spans="1:7">
@@ -32647,7 +32647,7 @@
         <v>152.5875229780624</v>
       </c>
       <c r="G1402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1403" spans="1:7">
@@ -32693,7 +32693,7 @@
         <v>180.4042766210945</v>
       </c>
       <c r="G1404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1405" spans="1:7">
@@ -32877,7 +32877,7 @@
         <v>216.6910316981156</v>
       </c>
       <c r="G1412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1413" spans="1:7">
@@ -32900,7 +32900,7 @@
         <v>151.6065292461387</v>
       </c>
       <c r="G1413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1414" spans="1:7">
@@ -32923,7 +32923,7 @@
         <v>180.5703740780619</v>
       </c>
       <c r="G1414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1415" spans="1:7">
@@ -33084,7 +33084,7 @@
         <v>174.5842123108867</v>
       </c>
       <c r="G1421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1422" spans="1:7">
@@ -33107,7 +33107,7 @@
         <v>178.0438009926524</v>
       </c>
       <c r="G1422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1423" spans="1:7">
@@ -33268,7 +33268,7 @@
         <v>185.0275610060859</v>
       </c>
       <c r="G1429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1430" spans="1:7">
@@ -33406,7 +33406,7 @@
         <v>178.2384023269047</v>
       </c>
       <c r="G1435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1436" spans="1:7">
@@ -33452,7 +33452,7 @@
         <v>179.3941101239767</v>
       </c>
       <c r="G1437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1438" spans="1:7">
@@ -33475,7 +33475,7 @@
         <v>186.0444302990013</v>
       </c>
       <c r="G1438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1439" spans="1:7">
@@ -33521,7 +33521,7 @@
         <v>174.0409399093038</v>
       </c>
       <c r="G1440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1441" spans="1:7">
@@ -33544,7 +33544,7 @@
         <v>141.1578957689254</v>
       </c>
       <c r="G1441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1442" spans="1:7">
@@ -33613,7 +33613,7 @@
         <v>163.833587907757</v>
       </c>
       <c r="G1444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1445" spans="1:7">
@@ -33682,7 +33682,7 @@
         <v>151.4965047778459</v>
       </c>
       <c r="G1447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1448" spans="1:7">
@@ -33797,7 +33797,7 @@
         <v>185.1972054292948</v>
       </c>
       <c r="G1452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1453" spans="1:7">
@@ -33889,7 +33889,7 @@
         <v>183.258898705479</v>
       </c>
       <c r="G1456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1457" spans="1:7">
@@ -33935,7 +33935,7 @@
         <v>169.398639032199</v>
       </c>
       <c r="G1458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1459" spans="1:7">
@@ -34004,7 +34004,7 @@
         <v>157.8674310950581</v>
       </c>
       <c r="G1461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1462" spans="1:7">
@@ -34119,7 +34119,7 @@
         <v>150.9535806184986</v>
       </c>
       <c r="G1466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1467" spans="1:7">
@@ -34165,7 +34165,7 @@
         <v>191.4707524837166</v>
       </c>
       <c r="G1468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1469" spans="1:7">
@@ -34257,7 +34257,7 @@
         <v>166.3176104474724</v>
       </c>
       <c r="G1472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1473" spans="1:7">
@@ -34280,7 +34280,7 @@
         <v>187.7149553764775</v>
       </c>
       <c r="G1473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1474" spans="1:7">
@@ -34326,7 +34326,7 @@
         <v>165.3054526652829</v>
       </c>
       <c r="G1475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1476" spans="1:7">
@@ -34510,7 +34510,7 @@
         <v>183.4086190440768</v>
       </c>
       <c r="G1483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1484" spans="1:7">
@@ -34671,7 +34671,7 @@
         <v>167.4485149529979</v>
       </c>
       <c r="G1490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1491" spans="1:7">
@@ -34786,7 +34786,7 @@
         <v>196.3294217812114</v>
       </c>
       <c r="G1495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1496" spans="1:7">
@@ -34809,7 +34809,7 @@
         <v>164.4606285528783</v>
       </c>
       <c r="G1496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1497" spans="1:7">
@@ -34878,7 +34878,7 @@
         <v>164.9360601750597</v>
       </c>
       <c r="G1499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1500" spans="1:7">
@@ -34901,7 +34901,7 @@
         <v>157.9461446971528</v>
       </c>
       <c r="G1500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1501" spans="1:7">
@@ -35039,7 +35039,7 @@
         <v>139.1363854749759</v>
       </c>
       <c r="G1506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1507" spans="1:7">
@@ -35108,7 +35108,7 @@
         <v>207.6542133528012</v>
       </c>
       <c r="G1509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1510" spans="1:7">
@@ -35200,7 +35200,7 @@
         <v>195.4292306208505</v>
       </c>
       <c r="G1513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1514" spans="1:7">
@@ -35338,7 +35338,7 @@
         <v>198.2555132223224</v>
       </c>
       <c r="G1519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1520" spans="1:7">
@@ -35361,7 +35361,7 @@
         <v>162.1293185632036</v>
       </c>
       <c r="G1520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1521" spans="1:7">
@@ -35545,7 +35545,7 @@
         <v>185.8515559802745</v>
       </c>
       <c r="G1528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1529" spans="1:7">
@@ -35568,7 +35568,7 @@
         <v>186.3918947057494</v>
       </c>
       <c r="G1529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1530" spans="1:7">
@@ -35660,7 +35660,7 @@
         <v>163.4253648649785</v>
       </c>
       <c r="G1533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1534" spans="1:7">
@@ -35729,7 +35729,7 @@
         <v>181.5242044502243</v>
       </c>
       <c r="G1536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1537" spans="1:7">
@@ -35752,7 +35752,7 @@
         <v>184.6979420359144</v>
       </c>
       <c r="G1537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1538" spans="1:7">
@@ -35798,7 +35798,7 @@
         <v>181.2854830210068</v>
       </c>
       <c r="G1539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1540" spans="1:7">
@@ -35821,7 +35821,7 @@
         <v>203.069231941992</v>
       </c>
       <c r="G1540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1541" spans="1:7">
@@ -35890,7 +35890,7 @@
         <v>192.3652735165538</v>
       </c>
       <c r="G1543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1544" spans="1:7">
@@ -36005,7 +36005,7 @@
         <v>185.1885133162112</v>
       </c>
       <c r="G1548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1549" spans="1:7">
@@ -36028,7 +36028,7 @@
         <v>179.7611837149318</v>
       </c>
       <c r="G1549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1550" spans="1:7">
@@ -36074,7 +36074,7 @@
         <v>183.9547997698562</v>
       </c>
       <c r="G1551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1552" spans="1:7">
@@ -36304,7 +36304,7 @@
         <v>156.7374479560828</v>
       </c>
       <c r="G1561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1562" spans="1:7">
@@ -36327,7 +36327,7 @@
         <v>165.6275133080431</v>
       </c>
       <c r="G1562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1563" spans="1:7">
@@ -36465,7 +36465,7 @@
         <v>168.1185481091854</v>
       </c>
       <c r="G1568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1569" spans="1:7">
@@ -36488,7 +36488,7 @@
         <v>149.1605075781524</v>
       </c>
       <c r="G1569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1570" spans="1:7">
@@ -36626,7 +36626,7 @@
         <v>191.5993191133989</v>
       </c>
       <c r="G1575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1576" spans="1:7">
@@ -36718,7 +36718,7 @@
         <v>189.1719430998704</v>
       </c>
       <c r="G1579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1580" spans="1:7">
@@ -36741,7 +36741,7 @@
         <v>185.0143208718649</v>
       </c>
       <c r="G1580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1581" spans="1:7">
@@ -36810,7 +36810,7 @@
         <v>171.3653541739997</v>
       </c>
       <c r="G1583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1584" spans="1:7">
@@ -36948,7 +36948,7 @@
         <v>179.997941362525</v>
       </c>
       <c r="G1589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1590" spans="1:7">
@@ -37040,7 +37040,7 @@
         <v>186.6766730742235</v>
       </c>
       <c r="G1593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1594" spans="1:7">
@@ -37109,7 +37109,7 @@
         <v>185.3248910668501</v>
       </c>
       <c r="G1596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1597" spans="1:7">
@@ -37224,7 +37224,7 @@
         <v>208.1148776142491</v>
       </c>
       <c r="G1601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1602" spans="1:7">
@@ -37408,7 +37408,7 @@
         <v>153.1645679909711</v>
       </c>
       <c r="G1609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1610" spans="1:7">
@@ -37431,7 +37431,7 @@
         <v>177.1208292561871</v>
       </c>
       <c r="G1610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1611" spans="1:7">
@@ -37477,7 +37477,7 @@
         <v>198.2182536636666</v>
       </c>
       <c r="G1612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1613" spans="1:7">
@@ -37500,7 +37500,7 @@
         <v>188.9459244053136</v>
       </c>
       <c r="G1613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1614" spans="1:7">
@@ -37523,7 +37523,7 @@
         <v>192.0800452116717</v>
       </c>
       <c r="G1614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1615" spans="1:7">
@@ -37546,7 +37546,7 @@
         <v>193.5155346106264</v>
       </c>
       <c r="G1615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1616" spans="1:7">
@@ -37661,7 +37661,7 @@
         <v>155.2823214011627</v>
       </c>
       <c r="G1620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1621" spans="1:7">
@@ -37684,7 +37684,7 @@
         <v>152.959065013889</v>
       </c>
       <c r="G1621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1622" spans="1:7">
@@ -37799,7 +37799,7 @@
         <v>198.0102297011902</v>
       </c>
       <c r="G1626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1627" spans="1:7">
@@ -37845,7 +37845,7 @@
         <v>165.0360475717445</v>
       </c>
       <c r="G1628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1629" spans="1:7">
@@ -37868,7 +37868,7 @@
         <v>179.0266834347359</v>
       </c>
       <c r="G1629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1630" spans="1:7">
@@ -38121,7 +38121,7 @@
         <v>184.6533690477178</v>
       </c>
       <c r="G1640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1641" spans="1:7">
@@ -38144,7 +38144,7 @@
         <v>178.1176776741287</v>
       </c>
       <c r="G1641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1642" spans="1:7">
@@ -38374,7 +38374,7 @@
         <v>152.2425096404788</v>
       </c>
       <c r="G1651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1652" spans="1:7">
@@ -38466,7 +38466,7 @@
         <v>191.6207305400414</v>
       </c>
       <c r="G1655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1656" spans="1:7">
@@ -38604,7 +38604,7 @@
         <v>139.663898302687</v>
       </c>
       <c r="G1661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1662" spans="1:7">
@@ -38719,7 +38719,7 @@
         <v>190.2054936967199</v>
       </c>
       <c r="G1666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1667" spans="1:7">
@@ -38857,7 +38857,7 @@
         <v>162.6235311942978</v>
       </c>
       <c r="G1672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1673" spans="1:7">
@@ -38949,7 +38949,7 @@
         <v>181.5422816188122</v>
       </c>
       <c r="G1676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1677" spans="1:7">
@@ -38995,7 +38995,7 @@
         <v>191.5266084111673</v>
       </c>
       <c r="G1678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1679" spans="1:7">
@@ -39041,7 +39041,7 @@
         <v>187.6107337556027</v>
       </c>
       <c r="G1680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1681" spans="1:7">
@@ -39179,7 +39179,7 @@
         <v>168.3725093412547</v>
       </c>
       <c r="G1686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1687" spans="1:7">
@@ -39225,7 +39225,7 @@
         <v>158.2609794511209</v>
       </c>
       <c r="G1688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1689" spans="1:7">
@@ -39294,7 +39294,7 @@
         <v>171.9895739690217</v>
       </c>
       <c r="G1691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1692" spans="1:7">
@@ -39432,7 +39432,7 @@
         <v>181.7014909180677</v>
       </c>
       <c r="G1697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1698" spans="1:7">
@@ -39455,7 +39455,7 @@
         <v>151.529685330693</v>
       </c>
       <c r="G1698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1699" spans="1:7">
@@ -39570,7 +39570,7 @@
         <v>203.3985582666022</v>
       </c>
       <c r="G1703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1704" spans="1:7">
@@ -39708,7 +39708,7 @@
         <v>158.9615634886557</v>
       </c>
       <c r="G1709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1710" spans="1:7">
@@ -39731,7 +39731,7 @@
         <v>195.848186150263</v>
       </c>
       <c r="G1710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1711" spans="1:7">
@@ -39754,7 +39754,7 @@
         <v>204.9600209729287</v>
       </c>
       <c r="G1711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1712" spans="1:7">
@@ -39800,7 +39800,7 @@
         <v>160.5764747487258</v>
       </c>
       <c r="G1713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1714" spans="1:7">
@@ -39846,7 +39846,7 @@
         <v>202.844747113264</v>
       </c>
       <c r="G1715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1716" spans="1:7">
@@ -39869,7 +39869,7 @@
         <v>178.6286590163616</v>
       </c>
       <c r="G1716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1717" spans="1:7">
@@ -39892,7 +39892,7 @@
         <v>124.3107702520833</v>
       </c>
       <c r="G1717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1718" spans="1:7">
@@ -39915,7 +39915,7 @@
         <v>176.2853972730372</v>
       </c>
       <c r="G1718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1719" spans="1:7">
@@ -39961,7 +39961,7 @@
         <v>169.8846539706516</v>
       </c>
       <c r="G1720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1721" spans="1:7">
@@ -39984,7 +39984,7 @@
         <v>173.8815829233492</v>
       </c>
       <c r="G1721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1722" spans="1:7">
@@ -40007,7 +40007,7 @@
         <v>176.5305337006373</v>
       </c>
       <c r="G1722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1723" spans="1:7">
@@ -40076,7 +40076,7 @@
         <v>177.4409731426623</v>
       </c>
       <c r="G1725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1726" spans="1:7">
@@ -40122,7 +40122,7 @@
         <v>160.8169154634459</v>
       </c>
       <c r="G1727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1728" spans="1:7">
@@ -40168,7 +40168,7 @@
         <v>183.37260423203</v>
       </c>
       <c r="G1729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1730" spans="1:7">
@@ -40260,7 +40260,7 @@
         <v>170.270606647057</v>
       </c>
       <c r="G1733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1734" spans="1:7">
@@ -40283,7 +40283,7 @@
         <v>152.6685799015332</v>
       </c>
       <c r="G1734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1735" spans="1:7">
@@ -40329,7 +40329,7 @@
         <v>158.8435657823393</v>
       </c>
       <c r="G1736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1737" spans="1:7">
@@ -40398,7 +40398,7 @@
         <v>182.1624985353838</v>
       </c>
       <c r="G1739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1740" spans="1:7">
@@ -40421,7 +40421,7 @@
         <v>188.0587238422768</v>
       </c>
       <c r="G1740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1741" spans="1:7">
@@ -40582,7 +40582,7 @@
         <v>156.3559283854365</v>
       </c>
       <c r="G1747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1748" spans="1:7">
@@ -40674,7 +40674,7 @@
         <v>181.2255988000816</v>
       </c>
       <c r="G1751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1752" spans="1:7">
@@ -40766,7 +40766,7 @@
         <v>187.3362364075561</v>
       </c>
       <c r="G1755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1756" spans="1:7">
@@ -40835,7 +40835,7 @@
         <v>191.3153451931716</v>
       </c>
       <c r="G1758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1759" spans="1:7">
@@ -40950,7 +40950,7 @@
         <v>168.6436719300293</v>
       </c>
       <c r="G1763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1764" spans="1:7">
@@ -41042,7 +41042,7 @@
         <v>183.0817064436595</v>
       </c>
       <c r="G1767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1768" spans="1:7">
@@ -41111,7 +41111,7 @@
         <v>169.3910912863237</v>
       </c>
       <c r="G1770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1771" spans="1:7">
@@ -41134,7 +41134,7 @@
         <v>171.6381513659518</v>
       </c>
       <c r="G1771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1772" spans="1:7">
@@ -41157,7 +41157,7 @@
         <v>188.2549591759922</v>
       </c>
       <c r="G1772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1773" spans="1:7">
@@ -41226,7 +41226,7 @@
         <v>160.0717245160964</v>
       </c>
       <c r="G1775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1776" spans="1:7">
@@ -41318,7 +41318,7 @@
         <v>169.9287082159643</v>
       </c>
       <c r="G1779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1780" spans="1:7">
@@ -41341,7 +41341,7 @@
         <v>166.725601713529</v>
       </c>
       <c r="G1780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1781" spans="1:7">
@@ -41502,7 +41502,7 @@
         <v>202.8335363872023</v>
       </c>
       <c r="G1787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1788" spans="1:7">
@@ -41525,7 +41525,7 @@
         <v>185.1628255244315</v>
       </c>
       <c r="G1788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1789" spans="1:7">
@@ -41571,7 +41571,7 @@
         <v>180.5692143428598</v>
       </c>
       <c r="G1790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1791" spans="1:7">
@@ -41617,7 +41617,7 @@
         <v>142.0970524653924</v>
       </c>
       <c r="G1792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1793" spans="1:7">
@@ -41686,7 +41686,7 @@
         <v>157.9623884314426</v>
       </c>
       <c r="G1795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1796" spans="1:7">
@@ -41709,7 +41709,7 @@
         <v>172.6662657152612</v>
       </c>
       <c r="G1796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1797" spans="1:7">
@@ -41824,7 +41824,7 @@
         <v>151.7988896580665</v>
       </c>
       <c r="G1801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1802" spans="1:7">
@@ -41847,7 +41847,7 @@
         <v>146.7223179063718</v>
       </c>
       <c r="G1802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1803" spans="1:7">
@@ -41939,7 +41939,7 @@
         <v>178.793172554175</v>
       </c>
       <c r="G1806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1807" spans="1:7">
@@ -42008,7 +42008,7 @@
         <v>177.5200038872873</v>
       </c>
       <c r="G1809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1810" spans="1:7">
@@ -42146,7 +42146,7 @@
         <v>191.6755699430809</v>
       </c>
       <c r="G1815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1816" spans="1:7">
@@ -42169,7 +42169,7 @@
         <v>167.9374259961697</v>
       </c>
       <c r="G1816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1817" spans="1:7">
@@ -42238,7 +42238,7 @@
         <v>176.9096105385401</v>
       </c>
       <c r="G1819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1820" spans="1:7">
@@ -42468,7 +42468,7 @@
         <v>197.9199335399082</v>
       </c>
       <c r="G1829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1830" spans="1:7">
@@ -42491,7 +42491,7 @@
         <v>159.4047915406639</v>
       </c>
       <c r="G1830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1831" spans="1:7">
@@ -42514,7 +42514,7 @@
         <v>216.2929611124489</v>
       </c>
       <c r="G1831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1832" spans="1:7">
@@ -42537,7 +42537,7 @@
         <v>152.0358263342518</v>
       </c>
       <c r="G1832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1833" spans="1:7">
@@ -42583,7 +42583,7 @@
         <v>179.9050442525659</v>
       </c>
       <c r="G1834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1835" spans="1:7">
@@ -42652,7 +42652,7 @@
         <v>166.1224287990385</v>
       </c>
       <c r="G1837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1838" spans="1:7">
@@ -42698,7 +42698,7 @@
         <v>162.3935363347702</v>
       </c>
       <c r="G1839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1840" spans="1:7">
@@ -42721,7 +42721,7 @@
         <v>188.5726595137362</v>
       </c>
       <c r="G1840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1841" spans="1:7">
@@ -42813,7 +42813,7 @@
         <v>210.6127011881615</v>
       </c>
       <c r="G1844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1845" spans="1:7">
@@ -42859,7 +42859,7 @@
         <v>182.3411290768258</v>
       </c>
       <c r="G1846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1847" spans="1:7">
@@ -42905,7 +42905,7 @@
         <v>170.2084359260283</v>
       </c>
       <c r="G1848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1849" spans="1:7">
@@ -43296,7 +43296,7 @@
         <v>176.3415301122185</v>
       </c>
       <c r="G1865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1866" spans="1:7">
@@ -43342,7 +43342,7 @@
         <v>170.6641794321032</v>
       </c>
       <c r="G1867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1868" spans="1:7">
@@ -43388,7 +43388,7 @@
         <v>188.3075065782042</v>
       </c>
       <c r="G1869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1870" spans="1:7">
@@ -43457,7 +43457,7 @@
         <v>174.3897310086214</v>
       </c>
       <c r="G1872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1873" spans="1:7">
@@ -43480,7 +43480,7 @@
         <v>190.5228260722356</v>
       </c>
       <c r="G1873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1874" spans="1:7">
@@ -43503,7 +43503,7 @@
         <v>218.2281566930347</v>
       </c>
       <c r="G1874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1875" spans="1:7">
@@ -43595,7 +43595,7 @@
         <v>184.4886341076433</v>
       </c>
       <c r="G1878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1879" spans="1:7">
@@ -43664,7 +43664,7 @@
         <v>178.3542574399603</v>
       </c>
       <c r="G1881">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1882" spans="1:7">
@@ -43779,7 +43779,7 @@
         <v>162.7023369154667</v>
       </c>
       <c r="G1886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1887" spans="1:7">
@@ -43802,7 +43802,7 @@
         <v>173.3201118458623</v>
       </c>
       <c r="G1887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1888" spans="1:7">
@@ -43825,7 +43825,7 @@
         <v>212.6749828369146</v>
       </c>
       <c r="G1888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1889" spans="1:7">
@@ -43848,7 +43848,7 @@
         <v>150.3797495029148</v>
       </c>
       <c r="G1889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1890" spans="1:7">
@@ -43917,7 +43917,7 @@
         <v>165.1673817079742</v>
       </c>
       <c r="G1892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1893" spans="1:7">
@@ -44055,7 +44055,7 @@
         <v>192.7333918033156</v>
       </c>
       <c r="G1898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1899" spans="1:7">
@@ -44170,7 +44170,7 @@
         <v>172.613470440981</v>
       </c>
       <c r="G1903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1904" spans="1:7">
@@ -44193,7 +44193,7 @@
         <v>193.6685754550187</v>
       </c>
       <c r="G1904">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1905" spans="1:7">
@@ -44239,7 +44239,7 @@
         <v>148.9956003410593</v>
       </c>
       <c r="G1906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1907" spans="1:7">
@@ -44285,7 +44285,7 @@
         <v>199.4033449110298</v>
       </c>
       <c r="G1908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1909" spans="1:7">
@@ -44377,7 +44377,7 @@
         <v>161.7328439573262</v>
       </c>
       <c r="G1912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1913" spans="1:7">
@@ -44423,7 +44423,7 @@
         <v>199.3243646536103</v>
       </c>
       <c r="G1914">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1915" spans="1:7">
@@ -44446,7 +44446,7 @@
         <v>174.0474669004921</v>
       </c>
       <c r="G1915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1916" spans="1:7">
@@ -44469,7 +44469,7 @@
         <v>176.7303512952156</v>
       </c>
       <c r="G1916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1917" spans="1:7">
@@ -44561,7 +44561,7 @@
         <v>162.7364071659806</v>
       </c>
       <c r="G1920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1921" spans="1:7">
@@ -44653,7 +44653,7 @@
         <v>179.8746027887173</v>
       </c>
       <c r="G1924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1925" spans="1:7">
@@ -44722,7 +44722,7 @@
         <v>194.6828713151012</v>
       </c>
       <c r="G1927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1928" spans="1:7">
@@ -44768,7 +44768,7 @@
         <v>163.5863953326434</v>
       </c>
       <c r="G1929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1930" spans="1:7">
@@ -44975,7 +44975,7 @@
         <v>147.1691185070447</v>
       </c>
       <c r="G1938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1939" spans="1:7">
@@ -45044,7 +45044,7 @@
         <v>169.3170623833892</v>
       </c>
       <c r="G1941">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1942" spans="1:7">
@@ -45113,7 +45113,7 @@
         <v>161.7058113208707</v>
       </c>
       <c r="G1944">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1945" spans="1:7">
@@ -45297,7 +45297,7 @@
         <v>144.0292624472862</v>
       </c>
       <c r="G1952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1953" spans="1:7">
@@ -45320,7 +45320,7 @@
         <v>175.1720689968303</v>
       </c>
       <c r="G1953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1954" spans="1:7">
@@ -45389,7 +45389,7 @@
         <v>222.0492383564258</v>
       </c>
       <c r="G1956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1957" spans="1:7">
@@ -45619,7 +45619,7 @@
         <v>155.35000701047</v>
       </c>
       <c r="G1966">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1967" spans="1:7">
@@ -45711,7 +45711,7 @@
         <v>173.7761220203391</v>
       </c>
       <c r="G1970">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1971" spans="1:7">
@@ -45803,7 +45803,7 @@
         <v>162.5078466830696</v>
       </c>
       <c r="G1974">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1975" spans="1:7">
@@ -45826,7 +45826,7 @@
         <v>168.6418879399619</v>
       </c>
       <c r="G1975">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1976" spans="1:7">
@@ -45918,7 +45918,7 @@
         <v>153.9152117758885</v>
       </c>
       <c r="G1979">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1980" spans="1:7">
@@ -46102,7 +46102,7 @@
         <v>208.4755125474146</v>
       </c>
       <c r="G1987">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1988" spans="1:7">
@@ -46148,7 +46148,7 @@
         <v>163.4188595861395</v>
       </c>
       <c r="G1989">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1990" spans="1:7">
@@ -46194,7 +46194,7 @@
         <v>198.0201485586469</v>
       </c>
       <c r="G1991">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1992" spans="1:7">
@@ -46240,7 +46240,7 @@
         <v>174.2980907070204</v>
       </c>
       <c r="G1993">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1994" spans="1:7">
@@ -46263,7 +46263,7 @@
         <v>192.4585554051025</v>
       </c>
       <c r="G1994">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1995" spans="1:7">
@@ -46309,7 +46309,7 @@
         <v>158.5637744336169</v>
       </c>
       <c r="G1996">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1997" spans="1:7">
@@ -46378,7 +46378,7 @@
         <v>191.0259888645566</v>
       </c>
       <c r="G1999">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2000" spans="1:7">
